--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddeblock\PycharmProjects\Rogue Two\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddeblock\Documents\PycharmProjects\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06DF35-D499-46FA-BFAD-F9A50BF1DB66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4A5F3-977F-4DAD-82BC-C439A59CEF62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SA or FMC offers" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,19 +59,19 @@
     <t>PRP</t>
   </si>
   <si>
-    <t>HIBRID MINI</t>
-  </si>
-  <si>
-    <t>HIBRID</t>
-  </si>
-  <si>
-    <t>NAJBOLJA M</t>
-  </si>
-  <si>
-    <t>NAJBOLJA L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEOGRANICENA </t>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,14 +108,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,19 +132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -164,7 +145,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,19 +463,19 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -514,121 +495,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E3" s="3">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="E4" s="3">
-        <v>149</v>
+        <v>116.1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="3">
-        <v>199</v>
+        <v>143.1</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>999999</v>
+        <v>22.5</v>
       </c>
       <c r="E6" s="3">
-        <v>249</v>
+        <v>179.1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>206.1</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
